--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2706,24 +2706,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -2732,232 +2732,232 @@
         <v>34.66</v>
       </c>
       <c r="H30" t="n">
-        <v>138640000</v>
+        <v>166368000</v>
       </c>
       <c r="I30" t="n">
-        <v>4000000</v>
+        <v>4800000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>138640000</v>
+        <v>49910400</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>NISHANOV AZIZ YASHINOVICH</t>
+          <t>MIRALIMOV ERKIN ERGASHVOIVICH</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>AD1571420</t>
+          <t>AD2988250</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>30103976890015</t>
+          <t>31710810470037</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>IIV 30401 20.07.2022</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIV 27419</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>FARGONA VILOYATI FARGONA SHAHAR SAKKOKIY KUCHASI 10 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G`OFUR G`ULOM KO`CHASI 17-UY</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>+998982768888</t>
+          <t xml:space="preserve">+998 77 072 63 69 </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>РУКОВОДССТВО</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>34.66</v>
+        <v>41.88</v>
       </c>
       <c r="H31" t="n">
-        <v>138640000</v>
+        <v>234528000</v>
       </c>
       <c r="I31" t="n">
-        <v>4000000</v>
+        <v>5600000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>138640000</v>
+        <v>70358400</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>NISHANOV AZIZ YASHINOVICH</t>
+          <t>TOSHMATOVA GULGINA MIDXATOVNA</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>AD1571420</t>
+          <t>AD3519875</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>30103976890015</t>
+          <t>41408686860016</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  IIV 30401 20.07.2022</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FARGONA VILOYATI FARGONA SHAHAR SAKKOKIY KUCHASI 10 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYOTGULI KO'CHASI 39-UY</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>+998982768888</t>
+          <t>+998 88 178 98 48</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>РУКОВОДССТВО</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>34.66</v>
+        <v>50.34</v>
       </c>
       <c r="H32" t="n">
-        <v>166368000</v>
+        <v>251700000</v>
       </c>
       <c r="I32" t="n">
-        <v>4800000</v>
+        <v>5000000</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>49910400</v>
+        <v>125850000</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>MIRALIMOV ERKIN ERGASHVOIVICH</t>
+          <t>OXUNOV MUXTOR TULQINOVICH</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>AD2988250</t>
+          <t>AD3843344</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>31710810470037</t>
+          <t>33005686860012</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIV 27419</t>
+          <t>IIV 27419 06.07.2023</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G`OFUR G`ULOM KO`CHASI 17-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 31 UY 53 XONADON</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t xml:space="preserve">+998 77 072 63 69 </t>
+          <t>+998942125661</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
@@ -2981,32 +2981,32 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>TOSHMATOVA GULGINA MIDXATOVNA</t>
+          <t>NAZIROVA MAFTUNA BAXTIYOROVNA</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>AD3519875</t>
+          <t>AB4820841</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>41408686860016</t>
+          <t>41508930500043</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYOTGULI KO'CHASI 39-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUQUMIY KO`CHASI 38-UY 28-XONADON</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>+998 88 178 98 48</t>
+          <t>+998 99 993-69-47</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3018,348 +3018,348 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>50.34</v>
+        <v>25.04</v>
       </c>
       <c r="H34" t="n">
-        <v>251700000</v>
+        <v>115184000</v>
       </c>
       <c r="I34" t="n">
-        <v>5000000</v>
+        <v>4600000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>125850000</v>
+        <v>115184000</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>OXUNOV MUXTOR TULQINOVICH</t>
+          <t>XAMIDULLAYEV ASADBEK SHERXON O'G'LI</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>AD3843344</t>
+          <t>AC2489461</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>33005686860012</t>
+          <t>51711036060037</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>IIV 27419 06.07.2023</t>
+          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI IIB</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 31 UY 53 XONADON</t>
+          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI KATTA KO'RPA KO'CHASI 2-UY</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>+998942125661</t>
+          <t>+998 97 727 36 42</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>41.88</v>
+        <v>57.77</v>
       </c>
       <c r="H35" t="n">
-        <v>234528000</v>
+        <v>288850000</v>
       </c>
       <c r="I35" t="n">
-        <v>5600000</v>
+        <v>5000000</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>70358400</v>
+        <v>144425000</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>NAZIROVA MAFTUNA BAXTIYOROVNA</t>
+          <t>XAMIDULLAYEV ASADBEK SHERXON O'G'LI</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>AB4820841</t>
+          <t>AC2489461</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>41508930500043</t>
+          <t>51711036060037</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI IIB</t>
+          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI IIB</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUQUMIY KO`CHASI 38-UY 28-XONADON</t>
+          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI KATTA KO'RPA KO'CHASI 2-UY</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>+998 99 993-69-47</t>
+          <t>+998 97 727 36 42</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>25.04</v>
+        <v>34.66</v>
       </c>
       <c r="H36" t="n">
-        <v>115184000</v>
+        <v>173300000</v>
       </c>
       <c r="I36" t="n">
-        <v>4600000</v>
+        <v>5000000</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>115184000</v>
+        <v>51990000</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>XAMIDULLAYEV ASADBEK SHERXON O'G'LI</t>
+          <t>XODJAYEVA FERUZA SAYDULLAYEVNA</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>AC2489461</t>
+          <t>AD7157367</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>51711036060037</t>
+          <t>41211703930016</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI IIB</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI KATTA KO'RPA KO'CHASI 2-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 9-KICHIK NOHIYA 25A-UY 16-XONADON</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>+998 97 727 36 42</t>
+          <t>+998 90 011 18 54</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>57.77</v>
+        <v>44.28</v>
       </c>
       <c r="H37" t="n">
-        <v>288850000</v>
+        <v>212544000</v>
       </c>
       <c r="I37" t="n">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>144425000</v>
+        <v>63763200</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>XAMIDULLAYEV ASADBEK SHERXON O'G'LI</t>
+          <t>MANAPOV MURODJON DILSHOD O`G`LI</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>AC2489461</t>
+          <t>AB0744993</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>51711036060037</t>
+          <t>32005930470081</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI KATTAQO'RG'ON TUMANI KATTA KO'RPA KO'CHASI 2-UY</t>
+          <t>CHIRCHIQ SHAHAR G`ALABA M.F.Y G`ALABA KO`CHASI 17-UY 33-XONADON</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>+998 97 727 36 42</t>
+          <t xml:space="preserve">+998 95 647-70-07 </t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>34.66</v>
+        <v>47.91</v>
       </c>
       <c r="H38" t="n">
-        <v>173300000</v>
+        <v>229968000</v>
       </c>
       <c r="I38" t="n">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3367,21 +3367,21 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>51990000</v>
+        <v>68990400</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>XODJAYEVA FERUZA SAYDULLAYEVNA</t>
+          <t>RUSTAMKULOV DILSHOD MANAPOVICH</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>AD7157367</t>
+          <t>AD6024587</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>41211703930016</t>
+          <t>33001696860048</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3391,50 +3391,50 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 9-KICHIK NOHIYA 25A-UY 16-XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G'ALABA MFY G'ALABA KO'CHASI 14-UY 33-XONADON</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>+998 90 011 18 54</t>
+          <t>+998 99 000 25 60</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>44.28</v>
+        <v>47.91</v>
       </c>
       <c r="H39" t="n">
-        <v>212544000</v>
+        <v>229968000</v>
       </c>
       <c r="I39" t="n">
         <v>4800000</v>
@@ -3445,74 +3445,74 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>63763200</v>
+        <v>68990400</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>MANAPOV MURODJON DILSHOD O`G`LI</t>
+          <t>RUSTAMKULOV DILSHOD MANAPOVICH</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>AB0744993</t>
+          <t>AD6024587</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>32005930470081</t>
+          <t>33001696860048</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR G`ALABA M.F.Y G`ALABA KO`CHASI 17-UY 33-XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G'ALABA MFY G'ALABA KO'CHASI 14-UY 33-XONADON</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t xml:space="preserve">+998 95 647-70-07 </t>
+          <t>+998 99 000 25 60</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>47.91</v>
+        <v>44.28</v>
       </c>
       <c r="H40" t="n">
-        <v>229968000</v>
+        <v>212544000</v>
       </c>
       <c r="I40" t="n">
         <v>4800000</v>
@@ -3523,155 +3523,155 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>68990400</v>
+        <v>63763200</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>RUSTAMKULOV DILSHOD MANAPOVICH</t>
+          <t>ATEMKULOV MURAT ORINBASAROVICH</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>AD6024587</t>
+          <t>AC2593883</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>33001696860048</t>
+          <t>32903920500010</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G'ALABA MFY G'ALABA KO'CHASI 14-UY 33-XONADON</t>
+          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI OZODBOSH BERUNIY KO`CHASI 56</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>+998 99 000 25 60</t>
+          <t>+998 99 400 20 01</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>47.91</v>
+        <v>50.34</v>
       </c>
       <c r="H41" t="n">
-        <v>229968000</v>
+        <v>221496000</v>
       </c>
       <c r="I41" t="n">
-        <v>4800000</v>
+        <v>4400000</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>68990400</v>
+        <v>221496000</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>RUSTAMKULOV DILSHOD MANAPOVICH</t>
+          <t xml:space="preserve">ABDUVALIYEV SANJAR SODIQOVICH </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>AD6024587</t>
+          <t>AD9447749</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>33001696860048</t>
+          <t>32110840510041</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 27419 18.11.2024</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR G'ALABA MFY G'ALABA KO'CHASI 14-UY 33-XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR SEMURG MFY 8 KICHIK NOXYA 8 UY 73 XONADON</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>+998 99 000 25 60</t>
+          <t>+998900044109</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t>Фатима</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>44.28</v>
+        <v>34.66</v>
       </c>
       <c r="H42" t="n">
-        <v>212544000</v>
+        <v>173300000</v>
       </c>
       <c r="I42" t="n">
-        <v>4800000</v>
+        <v>5000000</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3679,53 +3679,53 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>63763200</v>
+        <v>51990000</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ATEMKULOV MURAT ORINBASAROVICH</t>
+          <t>NAVROZOV SARVAR ALISHEROVICH</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>AC2593883</t>
+          <t>AD3743500</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>32903920500010</t>
+          <t>31607890191388</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI</t>
+          <t>23.06.2023</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI OZODBOSH BERUNIY KO`CHASI 56</t>
+          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI CHINOBOD KOCHASI 8 UY 51 XONADON</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>+998 99 400 20 01</t>
+          <t>+998909003004 +998339005009</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3734,166 +3734,166 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>50.34</v>
+        <v>34.66</v>
       </c>
       <c r="H43" t="n">
-        <v>221496000</v>
+        <v>187164000</v>
       </c>
       <c r="I43" t="n">
-        <v>4400000</v>
+        <v>5400000</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>221496000</v>
+        <v>56149200</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABDUVALIYEV SANJAR SODIQOVICH </t>
+          <t>XURRAMOV NURBEK SHOMURODOVICH</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>AD9447749</t>
+          <t>AD1546754</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>32110840510041</t>
+          <t>30404842600050</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>IIV 27419 18.11.2024</t>
+          <t>IIV  14.07.2022</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR SEMURG MFY 8 KICHIK NOXYA 8 UY 73 XONADON</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI ZAKOVAT MFY FAROVON HAYOT2 KUCHASI 1A UY</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>+998900044109</t>
+          <t>+998882021984</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Фатима</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>34.66</v>
+        <v>50.34</v>
       </c>
       <c r="H44" t="n">
-        <v>173300000</v>
+        <v>231564000</v>
       </c>
       <c r="I44" t="n">
-        <v>5000000</v>
+        <v>4600000</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>51990000</v>
+        <v>231564000</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>NAVROZOV SARVAR ALISHEROVICH</t>
+          <t>YUSUPOVA NAFISA  AXMADJANOVNA</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>AD3743500</t>
+          <t>AB3354407</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>31607890191388</t>
+          <t>309242003836860031</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>23.06.2023</t>
+          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR IIB 10.03.2016</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI CHINOBOD KOCHASI 8 UY 51 XONADON</t>
+          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 10 UY 38 XONADON</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>+998909003004 +998339005009</t>
+          <t>+998880133833</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>Aziz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -3902,47 +3902,47 @@
         <v>34.66</v>
       </c>
       <c r="H45" t="n">
-        <v>187164000</v>
+        <v>152504000</v>
       </c>
       <c r="I45" t="n">
-        <v>5400000</v>
+        <v>4400000</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>56149200</v>
+        <v>152504000</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>XURRAMOV NURBEK SHOMURODOVICH</t>
+          <t>SOBIROV ABDULLA FATXILLA OGLI</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>AD1546754</t>
+          <t>AC0807821</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>30404842600050</t>
+          <t>33011940560028</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>IIV  14.07.2022</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2018</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI ZAKOVAT MFY FAROVON HAYOT2 KUCHASI 1A UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ 8 KICHIK NOXIYA 36 UY 14 XONADON</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>+998882021984</t>
+          <t>+998909099101</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3954,151 +3954,151 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>50.34</v>
+        <v>44.28</v>
       </c>
       <c r="H46" t="n">
-        <v>231564000</v>
+        <v>194832000</v>
       </c>
       <c r="I46" t="n">
-        <v>4600000</v>
+        <v>4400000</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>231564000</v>
+        <v>136382400</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>YUSUPOVA NAFISA  AXMADJANOVNA</t>
+          <t xml:space="preserve">BABADJANOVA ANGELA BATIRALIYEVNA </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>AB3354407</t>
+          <t>AD4481939</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>309242003836860031</t>
+          <t>40511880470048</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR IIB 10.03.2016</t>
+          <t>IIV 60120 04.09.2023</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 10 UY 38 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY SUGDIYONA KUCHASI 8 UY</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>+998880133833</t>
+          <t>+998936169555</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Aziz</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>34.66</v>
+        <v>50.34</v>
       </c>
       <c r="H47" t="n">
-        <v>152504000</v>
+        <v>271836000</v>
       </c>
       <c r="I47" t="n">
-        <v>4400000</v>
+        <v>5400000</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>152504000</v>
+        <v>81550800</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>SOBIROV ABDULLA FATXILLA OGLI</t>
+          <t>SODIKOV SARDOR TOSHKUVATOVICH</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>AC0807821</t>
+          <t>AB0229238</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>33011940560028</t>
+          <t>32706862420013</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2018</t>
+          <t>NAVOIY VILOYATI KARMANA TUMANI IIB</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ 8 KICHIK NOXIYA 36 UY 14 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XUMO MFY 8 KICHIK NOXYA 35 UY 31 XONADON</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>+998909099101</t>
+          <t>+998936634497</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4124,59 +4124,59 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>44.28</v>
+        <v>55.67</v>
       </c>
       <c r="H48" t="n">
-        <v>194832000</v>
+        <v>278350000</v>
       </c>
       <c r="I48" t="n">
-        <v>4400000</v>
+        <v>5000000</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>136382400</v>
+        <v>83505000</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve">BABADJANOVA ANGELA BATIRALIYEVNA </t>
+          <t>ABDUXOLIQOV FARRUX FARHOD OGLI</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>AD4481939</t>
+          <t>AD6688630</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>40511880470048</t>
+          <t>32210900840063</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>IIV 60120 04.09.2023</t>
+          <t>IIV 27419 02.04.2024</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY SUGDIYONA KUCHASI 8 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR ADOLAT MFY 9 KICHIK NOXYA 36 UY 17 XONADON</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>+998936169555</t>
+          <t>+998917777229</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4188,102 +4188,102 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>50.34</v>
+        <v>34.66</v>
       </c>
       <c r="H49" t="n">
-        <v>271836000</v>
+        <v>173300000</v>
       </c>
       <c r="I49" t="n">
-        <v>5400000</v>
+        <v>5000000</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>81550800</v>
+        <v>86650000</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>SODIKOV SARDOR TOSHKUVATOVICH</t>
+          <t>BOBODUSTOV SHOHZOD ZOKIR O`G`LI</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>AB0229238</t>
+          <t>AB3768763</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>32706862420013</t>
+          <t>30110985640034</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>NAVOIY VILOYATI KARMANA TUMANI IIB</t>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TIIB</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XUMO MFY 8 KICHIK NOXYA 35 UY 31 XONADON</t>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI BESHCHASHMA QMB PAST UYSHUN 666-XONADON</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>+998936634497</t>
+          <t>+998 93 958-89-98</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
@@ -4292,88 +4292,88 @@
         <v>55.67</v>
       </c>
       <c r="H50" t="n">
-        <v>278350000</v>
+        <v>267216000</v>
       </c>
       <c r="I50" t="n">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>83505000</v>
+        <v>133608000</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ABDUXOLIQOV FARRUX FARHOD OGLI</t>
+          <t>NORMATOVA KAMOLA YULDASHEVNA</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>AD6688630</t>
+          <t>AD7797320</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>32210900840063</t>
+          <t>41008891520022</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>IIV 27419 02.04.2024</t>
+          <t>IIV 26296 09.072024</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR ADOLAT MFY 9 KICHIK NOXYA 36 UY 17 XONADON</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI  FERUZA KUCHASI 51 UY 39 XONADON</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>+998917777229</t>
+          <t>+998970021416</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>34.66</v>
+        <v>44.28</v>
       </c>
       <c r="H51" t="n">
-        <v>173300000</v>
+        <v>212544000</v>
       </c>
       <c r="I51" t="n">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4381,365 +4381,365 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>86650000</v>
+        <v>106272000</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BOBODUSTOV SHOHZOD ZOKIR O`G`LI</t>
+          <t>FAYZULLAYEV HAYOT DILMURODOVICH</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>AB3768763</t>
+          <t>AD5839429</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>30110985640034</t>
+          <t>31612930470051</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TIIB</t>
+          <t>IIV 27419 20.01.2024</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI BESHCHASHMA QMB PAST UYSHUN 666-XONADON</t>
+          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR GALABA KUCHASI 16 UY 31 XONADON</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>+998 93 958-89-98</t>
+          <t>917756969</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>РУКОВОДССТВО</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="n">
-        <v>237</v>
-      </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>55.67</v>
+        <v>47.94</v>
       </c>
       <c r="H52" t="n">
-        <v>267216000</v>
+        <v>249288000</v>
       </c>
       <c r="I52" t="n">
-        <v>4800000</v>
+        <v>5200000</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>133608000</v>
+        <v>174501600</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NORMATOVA KAMOLA YULDASHEVNA</t>
+          <t>KARGAPOLOVNA ELENA PETROVNA</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>AD7797320</t>
+          <t>AD8083373</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>41008891520022</t>
+          <t>40907936860013</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>IIV 26296 09.072024</t>
+          <t>IIV 27419 01.08.2024</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI  FERUZA KUCHASI 51 UY 39 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  OKRUJNAYA KUCHASI 33A XONADON</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>+998970021416</t>
+          <t>+998998288286</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t>РУКОВОДССТВО</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>44.28</v>
+        <v>50.34</v>
       </c>
       <c r="H53" t="n">
-        <v>212544000</v>
+        <v>251700000</v>
       </c>
       <c r="I53" t="n">
-        <v>4800000</v>
+        <v>5000000</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>106272000</v>
+        <v>176190000</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>FAYZULLAYEV HAYOT DILMURODOVICH</t>
+          <t>XAYTBAYEVA FARIDA TOSHTEMIROVNA</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>AD5839429</t>
+          <t>AD1665555</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>31612930470051</t>
+          <t>40110876860018</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>IIV 27419 20.01.2024</t>
+          <t>IIV 27419 17.08.2022</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>TOSHKENT  VILOYATI CHIRCHIQ SHAHAR GALABA KUCHASI 16 UY 31 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 2 UY 75 XONADON</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>917756969</t>
+          <t>+998917763438</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>РУКОВОДССТВО</t>
+          <t>MIKHAIL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>47.94</v>
+        <v>34.66</v>
       </c>
       <c r="H54" t="n">
-        <v>249288000</v>
+        <v>194096000</v>
       </c>
       <c r="I54" t="n">
-        <v>5200000</v>
+        <v>5600000</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>174501600</v>
+        <v>58228800</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>KARGAPOLOVNA ELENA PETROVNA</t>
+          <t>RAXMANOV JAVOHIR AHMAD O'G'LI</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>AD8083373</t>
+          <t>AB4145338</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>40907936860013</t>
+          <t>33005975630050</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>IIV 27419 01.08.2024</t>
+          <t>10.06.2016 КАМАШИНСКИЙ РОВД, КАШКАДАРЬИНСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  OKRUJNAYA KUCHASI 33A XONADON</t>
+          <t>Qashqadaryo viloyati Qamashi tumani Gʻishtli MFY 102- uy</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>+998998288286</t>
+          <t>+998946699007</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>РУКОВОДССТВО</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>50.34</v>
+        <v>44.28</v>
       </c>
       <c r="H55" t="n">
-        <v>251700000</v>
+        <v>221400000</v>
       </c>
       <c r="I55" t="n">
         <v>5000000</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>176190000</v>
+        <v>110700000</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>XAYTBAYEVA FARIDA TOSHTEMIROVNA</t>
+          <t>MAXMUDOVA GULNUR ABDUMUTAL QIZI</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>AD1665555</t>
+          <t>AD3854467</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>40110876860018</t>
+          <t>41810966780046</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>IIV 27419 17.08.2022</t>
+          <t>IIV 27248</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 2 UY 75 XONADON</t>
+          <t>TOSHKENT  VILOYATI  QIBRAY TUMANI ZAFARABOT XFY SHARQ MFY ZAFARABOT GULZOR UY; R/S</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>+998917763438</t>
+          <t>+99833-001-18-10</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MIKHAIL</t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -4760,47 +4760,47 @@
         <v>34.66</v>
       </c>
       <c r="H56" t="n">
-        <v>194096000</v>
+        <v>180232000</v>
       </c>
       <c r="I56" t="n">
-        <v>5600000</v>
+        <v>5200000</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>58228800</v>
+        <v>90116000</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>RAXMANOV JAVOHIR AHMAD O'G'LI</t>
+          <t>DAVLATBAYEV XASAN DILSHAD OGLI</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>AB4145338</t>
+          <t>AB6769142</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>33005975630050</t>
+          <t>52604016860035</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>10.06.2016 КАМАШИНСКИЙ РОВД, КАШКАДАРЬИНСКОЙ ОБЛАСТИ</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 19.05.2017</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Qashqadaryo viloyati Qamashi tumani Gʻishtli MFY 102- uy</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR KIMYOGAR MFY YORKIN KELAJAK KUCHASI 2A UY</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>+998946699007</t>
+          <t>+998998024662</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4812,24 +4812,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
@@ -4853,32 +4853,32 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>MAXMUDOVA GULNUR ABDUMUTAL QIZI</t>
+          <t>MUSTAFAYEV ABDIMUROD OBULQOSIMOVICH</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>AD3854467</t>
+          <t>AD 0063132</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>41810966780046</t>
+          <t>32501848240012</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>IIV 27248</t>
+          <t>IIV 10411</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>TOSHKENT  VILOYATI  QIBRAY TUMANI ZAFARABOT XFY SHARQ MFY ZAFARABOT GULZOR UY; R/S</t>
+          <t xml:space="preserve">TOSHKENT SHAXRI YASHNOBOD TUMANI olmas MFY Kunduzsay ul 4tupik 12 uy 231 xonadon </t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>+99833-001-18-10</t>
+          <t>+998946408017</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4890,33 +4890,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>34.66</v>
+        <v>44.28</v>
       </c>
       <c r="H58" t="n">
-        <v>180232000</v>
+        <v>230256000</v>
       </c>
       <c r="I58" t="n">
         <v>5200000</v>
@@ -4927,155 +4927,155 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>90116000</v>
+        <v>115128000</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>DAVLATBAYEV XASAN DILSHAD OGLI</t>
+          <t xml:space="preserve">RASSKAZOVA DJAMILYA KARIMOVNA </t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>AB6769142</t>
+          <t>AD1014793</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>52604016860035</t>
+          <t>42508900241339</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 19.05.2017</t>
+          <t xml:space="preserve">IIV26287   </t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR KIMYOGAR MFY YORKIN KELAJAK KUCHASI 2A UY</t>
+          <t>г. Ташкент Яккасарайский р-н ул. Шота Руставелли дом 59-53</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>+998998024662</t>
+          <t>+998909495490</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t xml:space="preserve">михаил </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>44.28</v>
+        <v>34.66</v>
       </c>
       <c r="H59" t="n">
-        <v>221400000</v>
+        <v>187164000</v>
       </c>
       <c r="I59" t="n">
-        <v>5000000</v>
+        <v>5400000</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>110700000</v>
+        <v>56149200</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>MUSTAFAYEV ABDIMUROD OBULQOSIMOVICH</t>
+          <t xml:space="preserve">IRGASHEV ALMAZ BAXADIROVICH </t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>AD 0063132</t>
+          <t>AC1381774</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>32501848240012</t>
+          <t>52709026590029</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>IIV 10411</t>
+          <t>TOSHKENT SHAHAR CHILONZOR TUMANI IIB</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOSHKENT SHAXRI YASHNOBOD TUMANI olmas MFY Kunduzsay ul 4tupik 12 uy 231 xonadon </t>
+          <t>ЧИЛАНЗАР КВАРТАЛ-8 ДОМ 25 КВАТИРА 46</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>+998946408017</t>
+          <t>+998903461245</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t>МИХАИЛ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>44.28</v>
+        <v>50.34</v>
       </c>
       <c r="H60" t="n">
-        <v>230256000</v>
+        <v>241632000</v>
       </c>
       <c r="I60" t="n">
-        <v>5200000</v>
+        <v>4800000</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5083,77 +5083,77 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>115128000</v>
+        <v>120816000</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve">RASSKAZOVA DJAMILYA KARIMOVNA </t>
+          <t>XUDAYBERGANOVA ONAPOSHSHA YULDASHOVNA</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>AD1014793</t>
+          <t>AB34993983</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>42508900241339</t>
+          <t>41103823070070</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t xml:space="preserve">IIV26287   </t>
+          <t>XORAZM VILOYATI BOG'OT TUMANI IIB</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>г. Ташкент Яккасарайский р-н ул. Шота Руставелли дом 59-53</t>
+          <t>TOSHKENT VILOYATI BO'STONLIQ TUMANI G'AZALKENT SHAHRI YANGI CHORBOG' MAHALLA BESH TOSH KO'CHASI 23-UY</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>+998909495490</t>
+          <t>+998 99 563 82 02</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t xml:space="preserve">михаил </t>
+          <t>NILUFAR</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>213</v>
+      </c>
+      <c r="F61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="n">
-        <v>21</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
       <c r="G61" t="n">
-        <v>34.66</v>
+        <v>55.67</v>
       </c>
       <c r="H61" t="n">
-        <v>187164000</v>
+        <v>278350000</v>
       </c>
       <c r="I61" t="n">
-        <v>5400000</v>
+        <v>5000000</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5161,152 +5161,152 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>56149200</v>
+        <v>83505000</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve">IRGASHEV ALMAZ BAXADIROVICH </t>
+          <t xml:space="preserve">YUSUBJONOVA DONO XAYRIDINOVNA </t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>AC1381774</t>
+          <t>AD7098958</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>52709026590029</t>
+          <t>40307860500069</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR CHILONZOR TUMANI IIB</t>
+          <t>IIV27419  08.05.2024</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>ЧИЛАНЗАР КВАРТАЛ-8 ДОМ 25 КВАТИРА 46</t>
+          <t>CHIRCHIQ SHAHAR 64/4</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>+998903461245</t>
+          <t>+998886773742</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>МИХАИЛ</t>
+          <t xml:space="preserve">ФАТИМА </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>50.34</v>
+        <v>55.67</v>
       </c>
       <c r="H62" t="n">
-        <v>241632000</v>
+        <v>311752000</v>
       </c>
       <c r="I62" t="n">
-        <v>4800000</v>
+        <v>5600000</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>120816000</v>
+        <v>93525600</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>XUDAYBERGANOVA ONAPOSHSHA YULDASHOVNA</t>
+          <t xml:space="preserve">YUSUBJONOVA DONO XAYRIDINOVNA </t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>AB34993983</t>
+          <t>AD7098958</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>41103823070070</t>
+          <t>40307860500069</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>XORAZM VILOYATI BOG'OT TUMANI IIB</t>
+          <t>IIV27419  08.05.2024</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BO'STONLIQ TUMANI G'AZALKENT SHAHRI YANGI CHORBOG' MAHALLA BESH TOSH KO'CHASI 23-UY</t>
+          <t>CHIRCHIQ SHAHAR 64/4</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>+998 99 563 82 02</t>
+          <t>+998888773742</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>NILUFAR</t>
+          <t xml:space="preserve">ФАТИМА </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок 2</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>55.67</v>
+        <v>48.13</v>
       </c>
       <c r="H63" t="n">
-        <v>278350000</v>
+        <v>240650000</v>
       </c>
       <c r="I63" t="n">
         <v>5000000</v>
@@ -5317,221 +5317,221 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>83505000</v>
+        <v>72195000</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve">YUSUBJONOVA DONO XAYRIDINOVNA </t>
+          <t>BOLTAYEV ALISHER AZAMATOVICH</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>AD7098958</t>
+          <t>AE2523040</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>40307860500069</t>
+          <t>32510941170030</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>IIV27419  08.05.2024</t>
+          <t>IIV 27419 01.05.2025</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR 64/4</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR YANHGI OZBEKISTON 5 UY 47 XONADON</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>+998886773742</t>
+          <t>+998901260201</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФАТИМА </t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>55.67</v>
+        <v>34.66</v>
       </c>
       <c r="H64" t="n">
-        <v>311752000</v>
+        <v>152504000</v>
       </c>
       <c r="I64" t="n">
-        <v>5600000</v>
+        <v>4400000</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>93525600</v>
+        <v>152504000</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve">YUSUBJONOVA DONO XAYRIDINOVNA </t>
+          <t>OSIPOVA NATALYA VLADIMIROVNA</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>AD7098958</t>
+          <t>AD9119200</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>40307860500069</t>
+          <t>41306820270029</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>IIV27419  08.05.2024</t>
+          <t>IIV 26296 23.10.2024</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR 64/4</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI KORASUV 4 2 UY 223 XONADON</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>+998888773742</t>
+          <t>+998903509084 +998974509084</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФАТИМА </t>
+          <t xml:space="preserve">АЗИЗ </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Блок 2</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>48.13</v>
+        <v>50.34</v>
       </c>
       <c r="H65" t="n">
-        <v>240650000</v>
+        <v>271836000</v>
       </c>
       <c r="I65" t="n">
-        <v>5000000</v>
+        <v>5400000</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>72195000</v>
+        <v>135918000</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BOLTAYEV ALISHER AZAMATOVICH</t>
+          <t xml:space="preserve">KARSHIYEV DILSHOD ABDURAXMANOVICH </t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>AE2523040</t>
+          <t>AD3846805</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>32510941170030</t>
+          <t>32404640060016</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>IIV 27419 01.05.2025</t>
+          <t>IIV26291</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR YANHGI OZBEKISTON 5 UY 47 XONADON</t>
+          <t>Ташкент  Яшнабадский  р-н ул. Истикбол дом-1 кв-25</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>+998901260201</t>
+          <t>+998901745602      +998909006759</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t xml:space="preserve">михаил </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -5540,10 +5540,10 @@
         <v>34.66</v>
       </c>
       <c r="H66" t="n">
-        <v>152504000</v>
+        <v>166368000</v>
       </c>
       <c r="I66" t="n">
-        <v>4400000</v>
+        <v>4800000</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5551,426 +5551,426 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>152504000</v>
+        <v>166368000</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>OSIPOVA NATALYA VLADIMIROVNA</t>
+          <t xml:space="preserve">XABIBULLAYEV JAMOLIDDIN XAYRULLA OGLI </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>AD9119200</t>
+          <t>AB6930577</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>41306820270029</t>
+          <t>524110067200114</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>IIV 26296 23.10.2024</t>
+          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI KORASUV 4 2 UY 223 XONADON</t>
+          <t>Тошкент Вилояти Бостонлик тумани Товоксой Нурчилар-76</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>+998903509084 +998974509084</t>
+          <t>+998901327755</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t xml:space="preserve">АЗИЗ </t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>50.34</v>
+        <v>25.04</v>
       </c>
       <c r="H67" t="n">
-        <v>271836000</v>
+        <v>120192000</v>
       </c>
       <c r="I67" t="n">
-        <v>5400000</v>
+        <v>4800000</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>135918000</v>
+        <v>120192000</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve">KARSHIYEV DILSHOD ABDURAXMANOVICH </t>
+          <t xml:space="preserve">KHABIBULAYEV JAMOLODDIN XAYRULLA OGLI </t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>AD3846805</t>
+          <t>AB6930577</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>32404640060016</t>
+          <t>524110067200114</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>IIV26291</t>
+          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Ташкент  Яшнабадский  р-н ул. Истикбол дом-1 кв-25</t>
+          <t>Тошкент Вилояти Бостонлик тумани Товоксой Нурчилар-76</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>+998901745602      +998909006759</t>
+          <t>+998901327755</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t xml:space="preserve">михаил </t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>229</v>
+      </c>
+      <c r="F68" t="n">
         <v>3</v>
       </c>
-      <c r="E68" t="n">
-        <v>132</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
       <c r="G68" t="n">
-        <v>34.66</v>
+        <v>57.77</v>
       </c>
       <c r="H68" t="n">
-        <v>166368000</v>
+        <v>323512000</v>
       </c>
       <c r="I68" t="n">
-        <v>4800000</v>
+        <v>5600000</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>166368000</v>
+        <v>97053600</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve">XABIBULLAYEV JAMOLIDDIN XAYRULLA OGLI </t>
+          <t xml:space="preserve">AXMEDOVA MEXRIBON SAPAEVNA </t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>AB6930577</t>
+          <t>AE2721527</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>524110067200114</t>
+          <t>411106631160030</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
+          <t>IIV33401</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Тошкент Вилояти Бостонлик тумани Товоксой Нурчилар-76</t>
+          <t>XORAZIM VILOYATI  URGENCH SHAHAR NAVRUZTOR KOCHASI 22-UY</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>+998901327755</t>
+          <t>+998978536611</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t xml:space="preserve">ФАТИМА </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>25.04</v>
+        <v>50.34</v>
       </c>
       <c r="H69" t="n">
-        <v>120192000</v>
+        <v>261768000</v>
       </c>
       <c r="I69" t="n">
-        <v>4800000</v>
+        <v>5200000</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>120192000</v>
+        <v>183237600</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve">KHABIBULAYEV JAMOLODDIN XAYRULLA OGLI </t>
+          <t>MADREIMOV ANVAR IBADULLAYEVICH</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>AB6930577</t>
+          <t>AD1854109</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>524110067200114</t>
+          <t>32809873480015</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
+          <t>IIV26296</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Тошкент Вилояти Бостонлик тумани Товоксой Нурчилар-76</t>
+          <t xml:space="preserve">М. Улугбек р-н улица М.Улугбек 111 дом 48-квартира </t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>+998901327755</t>
+          <t>+998901255254      +998887085254</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t xml:space="preserve">михаил </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>144</v>
+      </c>
+      <c r="F70" t="n">
         <v>2</v>
       </c>
-      <c r="E70" t="n">
-        <v>229</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3</v>
-      </c>
       <c r="G70" t="n">
-        <v>57.77</v>
+        <v>50.34</v>
       </c>
       <c r="H70" t="n">
-        <v>323512000</v>
+        <v>241632000</v>
       </c>
       <c r="I70" t="n">
-        <v>5600000</v>
+        <v>4800000</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>97053600</v>
+        <v>120816000</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve">AXMEDOVA MEXRIBON SAPAEVNA </t>
+          <t>PAYAZOVA GULCHEXRA DIKAMBAYEVNA</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>AE2721527</t>
+          <t>AD4348777</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>411106631160030</t>
+          <t>42411796860013</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>IIV33401</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>XORAZIM VILOYATI  URGENCH SHAHAR NAVRUZTOR KOCHASI 22-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR VOHID XAYDAROV KO'CHASI 29-UY 48-XONADON</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>+998978536611</t>
+          <t>+998 88 345 11 50</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФАТИМА </t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок 3</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>50.34</v>
+        <v>46.67</v>
       </c>
       <c r="H71" t="n">
-        <v>261768000</v>
+        <v>261352000</v>
       </c>
       <c r="I71" t="n">
-        <v>5200000</v>
+        <v>5600000</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>183237600</v>
+        <v>78405600</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MADREIMOV ANVAR IBADULLAYEVICH</t>
+          <t xml:space="preserve">TUYCHIBEKOVA ZULFIYA ILESBAYEVNA </t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>AD1854109</t>
+          <t>AD2122621</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>32809873480015</t>
+          <t>41303680840018</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>IIV26296</t>
+          <t>IIV27419</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t xml:space="preserve">М. Улугбек р-н улица М.Улугбек 111 дом 48-квартира </t>
+          <t>10-мкр дом-93 квартира-11</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>+998901255254      +998887085254</t>
+          <t>+998917796107  978711087</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -5982,114 +5982,114 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Блок 1,2</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>50.34</v>
+        <v>57.77</v>
       </c>
       <c r="H72" t="n">
-        <v>241632000</v>
+        <v>277296000</v>
       </c>
       <c r="I72" t="n">
         <v>4800000</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>120816000</v>
+        <v>194107200</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>PAYAZOVA GULCHEXRA DIKAMBAYEVNA</t>
+          <t xml:space="preserve">KURBANOVA RANO URUMBAYEVNA </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>AD4348777</t>
+          <t>AD4133774</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>42411796860013</t>
+          <t>43010750470023</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV27419</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR VOHID XAYDAROV KO'CHASI 29-UY 48-XONADON</t>
+          <t xml:space="preserve"> Г. ЧИРЧИК  ТУПИК АЙНИ-17А</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>+998 88 345 11 50</t>
+          <t>+998935401828    +998994004231</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>Aziz</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Блок 3</t>
+          <t>Блок 2</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="F73" t="n">
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>46.67</v>
+        <v>48.13</v>
       </c>
       <c r="H73" t="n">
-        <v>261352000</v>
+        <v>259902000</v>
       </c>
       <c r="I73" t="n">
-        <v>5600000</v>
+        <v>5400000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6097,192 +6097,192 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>78405600</v>
+        <v>77970600</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve">TUYCHIBEKOVA ZULFIYA ILESBAYEVNA </t>
+          <t xml:space="preserve">SUYUNOVA GULNARA IZETOVNA </t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>AD2122621</t>
+          <t>AD9337235</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>41303680840018</t>
+          <t>40710600500010</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>IIV27419</t>
+          <t>IIV27419   09.11.2024</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>10-мкр дом-93 квартира-11</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>+998917796107  978711087</t>
+          <t>+998509970157</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t xml:space="preserve">михаил </t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>57.77</v>
+        <v>34.66</v>
       </c>
       <c r="H74" t="n">
-        <v>277296000</v>
+        <v>173300000</v>
       </c>
       <c r="I74" t="n">
-        <v>4800000</v>
+        <v>5000000</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>194107200</v>
+        <v>51990000</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve">KURBANOVA RANO URUMBAYEVNA </t>
+          <t>ERGASHEV ISLOM ABDIGANIYEVICH</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>AD4133774</t>
+          <t>AD8839971</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>43010750470023</t>
+          <t>312059860035</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>IIV27419</t>
+          <t>IIV 27419 02.10.2024</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Г. ЧИРЧИК  ТУПИК АЙНИ-17А</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 10 UY 45 XONADON</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>+998935401828    +998994004231</t>
+          <t>+998887388818</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Aziz</t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Блок 2</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>259</v>
+      </c>
+      <c r="F75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="n">
-        <v>93</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2</v>
-      </c>
       <c r="G75" t="n">
-        <v>48.13</v>
+        <v>57.77</v>
       </c>
       <c r="H75" t="n">
-        <v>259902000</v>
+        <v>300404000</v>
       </c>
       <c r="I75" t="n">
-        <v>5400000</v>
+        <v>5200000</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>77970600</v>
+        <v>210282800</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUYUNOVA GULNARA IZETOVNA </t>
+          <t>YULDASHEV  SHERZOD SALIYBAYEVICH</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>AD9337235</t>
+          <t>AD8883808</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>40710600500010</t>
+          <t>30706843330043</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>IIV27419   09.11.2024</t>
+          <t>IIV35204</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
+          <t>Qoraqalpog‘iston Respublikasi. Amudaryinskiy tumani, Drunki MFY. Oltinko‘l ko‘chasi, 6-uy</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>+998509970157</t>
+          <t>+998952241041</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6294,36 +6294,36 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>34.66</v>
+        <v>44.28</v>
       </c>
       <c r="H76" t="n">
-        <v>173300000</v>
+        <v>247968000</v>
       </c>
       <c r="I76" t="n">
-        <v>5000000</v>
+        <v>5600000</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6331,53 +6331,53 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>51990000</v>
+        <v>74390400</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>ERGASHEV ISLOM ABDIGANIYEVICH</t>
+          <t>UMAROVA JANILGAN MALDAYEVNA</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>AD8839971</t>
+          <t>AD9959841</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>312059860035</t>
+          <t>40611580470022</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>IIV 27419 02.10.2024</t>
+          <t>IIV27419</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 10 UY 45 XONADON</t>
+          <t xml:space="preserve">CHIRCHIQ SHAHAR 2-MIKRORAYON 3-DOM 65-XONADON </t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>+998887388818</t>
+          <t>+998943611989</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6389,27 +6389,27 @@
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>57.77</v>
+        <v>25.04</v>
       </c>
       <c r="H77" t="n">
-        <v>300404000</v>
+        <v>140224000</v>
       </c>
       <c r="I77" t="n">
-        <v>5200000</v>
+        <v>5600000</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>210282800</v>
+        <v>70112000</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>IIV35204</t>
+          <t>IIV 35204 05.10.2024</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Qoraqalpog‘iston Respublikasi. Amudaryinskiy tumani, Drunki MFY. Oltinko‘l ko‘chasi, 6-uy</t>
+          <t>Qoraqalpog‘iston Respublikasi. Amudaryinskiy tumani, Drunki MFY. Oltinko‘l ko‘chasi, 4-uy</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6450,36 +6450,36 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 3,2</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>44.28</v>
+        <v>55.67</v>
       </c>
       <c r="H78" t="n">
-        <v>247968000</v>
+        <v>300618000</v>
       </c>
       <c r="I78" t="n">
-        <v>5600000</v>
+        <v>5400000</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6487,53 +6487,53 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>74390400</v>
+        <v>90185400</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>UMAROVA JANILGAN MALDAYEVNA</t>
+          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>AD9959841</t>
+          <t>AB8137018</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>40611580470022</t>
+          <t>41104910840037</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>IIV27419</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHIRCHIQ SHAHAR 2-MIKRORAYON 3-DOM 65-XONADON </t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO ULUG`BEK M.F.Y IBN SINO KO`CHASI 18a UY 15-XONADON</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>+998943611989</t>
+          <t>+998 90 029-90-00</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6542,76 +6542,76 @@
         </is>
       </c>
       <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>264</v>
+      </c>
+      <c r="F79" t="n">
         <v>2</v>
       </c>
-      <c r="E79" t="n">
-        <v>260</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
       <c r="G79" t="n">
-        <v>25.04</v>
+        <v>46.67</v>
       </c>
       <c r="H79" t="n">
-        <v>140224000</v>
+        <v>252018000</v>
       </c>
       <c r="I79" t="n">
-        <v>5600000</v>
+        <v>5400000</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>70112000</v>
+        <v>75605400</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>YULDASHEV  SHERZOD SALIYBAYEVICH</t>
+          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>AD8883808</t>
+          <t>AB8137018</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>30706843330043</t>
+          <t>41104910840037</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>IIV 35204 05.10.2024</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Qoraqalpog‘iston Respublikasi. Amudaryinskiy tumani, Drunki MFY. Oltinko‘l ko‘chasi, 4-uy</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO ULUG`BEK M.F.Y IBN SINO KO`CHASI 18a UY 15-XONADON</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>+998952241041</t>
+          <t>+998 90 029-90-00</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>DILFUZA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6620,100 +6620,100 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>55.67</v>
+        <v>44.28</v>
       </c>
       <c r="H80" t="n">
-        <v>300618000</v>
+        <v>212544000</v>
       </c>
       <c r="I80" t="n">
-        <v>5400000</v>
+        <v>4800000</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>90185400</v>
+        <v>127000000</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
+          <t>SAMITOVA NIGORA ABDUGAFFOR QIZI</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>AB8137018</t>
+          <t>AE2046612</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>41104910840037</t>
+          <t>42501940470026</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 27419 24.03.2025</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO ULUG`BEK M.F.Y IBN SINO KO`CHASI 18a UY 15-XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR GULISTON MFY VOHIT HAYDAROV KUCHASI 21 UY 31 XONADON</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>+998 90 029-90-00</t>
+          <t>+998880126565</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок 2</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>46.67</v>
+        <v>32.46</v>
       </c>
       <c r="H81" t="n">
-        <v>252018000</v>
+        <v>181776000</v>
       </c>
       <c r="I81" t="n">
-        <v>5400000</v>
+        <v>5600000</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6721,114 +6721,114 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>75605400</v>
+        <v>54532800</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
+          <t>AKIROV AZIZJON ORINBOY OGLI</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>AB8137018</t>
+          <t>AB7431501</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>41104910840037</t>
+          <t>50708016860018</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 09.08.2017</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO ULUG`BEK M.F.Y IBN SINO KO`CHASI 18a UY 15-XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ HAYDAR MAKSUDOV MFY MARUFAT KUCHASI 30 UY</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>+998 90 029-90-00</t>
+          <t>+998885420373</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>DILFUZA</t>
+          <t>Руководство</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Блок 3,2</t>
+          <t>Блок 2</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>44.28</v>
+        <v>30.06</v>
       </c>
       <c r="H82" t="n">
-        <v>212544000</v>
+        <v>174348000</v>
       </c>
       <c r="I82" t="n">
-        <v>4800000</v>
+        <v>5800000</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>127000000</v>
+        <v>52304400</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>SAMITOVA NIGORA ABDUGAFFOR QIZI</t>
+          <t>BOTIRJONOV JASURBEK BOTIRJON OGLI</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>AE2046612</t>
+          <t>AD6661459</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>42501940470026</t>
+          <t>30501940260024</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>IIV 27419 24.03.2025</t>
+          <t>IIV 26294</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR GULISTON MFY VOHIT HAYDAROV KUCHASI 21 UY 31 XONADON</t>
+          <t>TOSHKENT SHAHAR CHILONZOR TUMANI 10 DAHASI 38 UY 9 XONADON</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>+998880126565</t>
+          <t>+998900027596</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6840,36 +6840,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Блок 2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>32.46</v>
+        <v>47.91</v>
       </c>
       <c r="H83" t="n">
-        <v>181776000</v>
+        <v>258714000</v>
       </c>
       <c r="I83" t="n">
-        <v>5600000</v>
+        <v>5400000</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6877,77 +6877,77 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>54532800</v>
+        <v>77614200</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>AKIROV AZIZJON ORINBOY OGLI</t>
+          <t>SHERMATOVA CHAROS NURALI QIZI</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>AB7431501</t>
+          <t>AB6470218</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>50708016860018</t>
+          <t>60206006860048</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 09.08.2017</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 13.04.2017</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ HAYDAR MAKSUDOV MFY MARUFAT KUCHASI 30 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR MADANIYAT MFY ISTIQBOL KOCHASI 63 UY 3 XONADON</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>+998885420373</t>
+          <t>+998906440295</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Блок 2</t>
+          <t>Блок-1</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>30.06</v>
+        <v>47.91</v>
       </c>
       <c r="H84" t="n">
-        <v>174348000</v>
+        <v>258714000</v>
       </c>
       <c r="I84" t="n">
-        <v>5800000</v>
+        <v>5400000</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6955,48 +6955,48 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>52304400</v>
+        <v>77614200</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BOTIRJONOV JASURBEK BOTIRJON OGLI</t>
+          <t>SHERMATOVA CHAROS NURALI QIZI</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>AD6661459</t>
+          <t>AB6470218</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>30501940260024</t>
+          <t>60206006860048</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>IIV 26294</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 13.04.2017</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR CHILONZOR TUMANI 10 DAHASI 38 UY 9 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK MADANIYAT MFY ISTIQBOL KUCHASI 63 UY 3 XONADON</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>+998900027596</t>
+          <t>+998906440295</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Руководство</t>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7006,26 +7006,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 2</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>47.91</v>
+        <v>48.13</v>
       </c>
       <c r="H85" t="n">
-        <v>258714000</v>
+        <v>269528000</v>
       </c>
       <c r="I85" t="n">
-        <v>5400000</v>
+        <v>5600000</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -7033,155 +7033,155 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>77614200</v>
+        <v>80858400</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>SHERMATOVA CHAROS NURALI QIZI</t>
+          <t xml:space="preserve">SALOYDINOVA FARANGIS NAUFAL  QIZI </t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>AB6470218</t>
+          <t>AB8279586</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>60206006860048</t>
+          <t>431019402400228</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 13.04.2017</t>
+          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIB 07.12.2017</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR MADANIYAT MFY ISTIQBOL KOCHASI 63 UY 3 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>+998906440295</t>
+          <t>+998978757073     +99885980002</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t>Риэлтор</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Блок-1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>47.91</v>
+        <v>34.66</v>
       </c>
       <c r="H86" t="n">
-        <v>258714000</v>
+        <v>166368000</v>
       </c>
       <c r="I86" t="n">
-        <v>5400000</v>
+        <v>4800000</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>77614200</v>
+        <v>166368000</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>SHERMATOVA CHAROS NURALI QIZI</t>
+          <t xml:space="preserve">MUSTAFAYEVA ZULFIYA MAMASAXATOVNA </t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>AB6470218</t>
+          <t>AD3453836</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>60206006860048</t>
+          <t>41502841780011</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 13.04.2017</t>
+          <t>IIV27419 29/05/2023</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK MADANIYAT MFY ISTIQBOL KUCHASI 63 UY 3 XONADON</t>
+          <t xml:space="preserve">Г. Чирчик амир темур кучаси 95 уй 30 хонадон </t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>+998906440295</t>
+          <t>+998993375414    +998770672625</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>AZIZ</t>
+          <t xml:space="preserve">михаил </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Блок 2</t>
+          <t>Блок-1,1</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>48.13</v>
+        <v>34.66</v>
       </c>
       <c r="H87" t="n">
-        <v>269528000</v>
+        <v>187164000</v>
       </c>
       <c r="I87" t="n">
-        <v>5600000</v>
+        <v>5400000</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7189,53 +7189,53 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>80858400</v>
+        <v>56149200</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALOYDINOVA FARANGIS NAUFAL  QIZI </t>
+          <t xml:space="preserve">QULAYEVA SABOXAT QUVONOVNA </t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>AB8279586</t>
+          <t>AB8081430</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>431019402400228</t>
+          <t>406047862100132</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIB 07.12.2017</t>
+          <t xml:space="preserve">SURXONDARYO VILOYATI BOYSUN TUMANI IIB </t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
+          <t xml:space="preserve">SURXONDARYO VILOYATI BOYSUN TUMANI QORAQAMISH </t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>+998978757073     +99885980002</t>
+          <t>+998993375414   +998770672625</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Риэлтор</t>
+          <t xml:space="preserve">михаил </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -7256,208 +7256,52 @@
         <v>34.66</v>
       </c>
       <c r="H88" t="n">
-        <v>166368000</v>
+        <v>194096000</v>
       </c>
       <c r="I88" t="n">
-        <v>4800000</v>
+        <v>5600000</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>166368000</v>
+        <v>58228800</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUSTAFAYEVA ZULFIYA MAMASAXATOVNA </t>
+          <t xml:space="preserve">ZIYAYEV SABIRJAN MURATJANOVICH </t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>AD3453836</t>
+          <t>AD3352875</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>41502841780011</t>
+          <t>32005810500033</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>IIV27419 29/05/2023</t>
+          <t>IIV27224  18.05.2023</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Г. Чирчик амир темур кучаси 95 уй 30 хонадон </t>
+          <t>CHIRCHIQ SHAHAR BUSTONLIQ TUMANI ISKANDAR ALISHER NAVOIY 13/27</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>+998993375414    +998770672625</t>
+          <t>+998994957481  +998977195718</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t xml:space="preserve">михаил </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2025-07-19</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Блок-1</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>24</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="H89" t="n">
-        <v>187164000</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
-        <v>56149200</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BABADJANOVA LILYA BATIRALIYEVNA </t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>AB6500801</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>4290985047004462</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Г. Чирчик азочик-1 Сугдиона -8 </t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>+998883472909       +998917774151</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>AZIZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Блок-1,1</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" t="n">
-        <v>64</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="H90" t="n">
-        <v>187164000</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
-        <v>56149200</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QULAYEVA SABOXAT QUVONOVNA </t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>AB8081430</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>406047862100132</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SURXONDARYO VILOYATI BOYSUN TUMANI IIB </t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SURXONDARYO VILOYATI BOYSUN TUMANI QORAQAMISH </t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>+998993375414   +998770672625</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">михаил </t>
+          <t xml:space="preserve">АЗИЗ </t>
         </is>
       </c>
     </row>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7305,6 +7305,84 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>73</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="H89" t="n">
+        <v>173300000</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>51990000</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BEGMATOVA MALIKA SHUHRAT QIZI</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>AB5689640</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>42307920231756</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR SIRGALI TUMANI IIB</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR SIRGALI TUMANI YOLDOSH 1 52 UY 1 XONADON</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>+998930018440</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АЗИЗ </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7383,6 +7383,84 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Блок 3,2</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>277</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="H90" t="n">
+        <v>254188000</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>254188000</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>NABIYEV SHOKIRJON BATIROVICH</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>AD6547375</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>31904890840019</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>IIV 26284</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR ISHONCH M.F.Y 10 KICHIK NOXIYA 90-UY 39-XONADON</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>+998331190489</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7461,6 +7461,84 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Блок-1</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>40</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="H91" t="n">
+        <v>173300000</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>51990000</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>JAKSIBEKOVA GAZZAL KIPSHAKBAEVNA</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>AD6793982</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>42009713450027</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>IIV 27419 13.04.2024</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOHYA 38 UY 7 XONADON</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>+998997868318</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Риэлтор</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7539,6 +7539,240 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>62</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="H92" t="n">
+        <v>258714000</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>77614200</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>QARSHIYEV SALOHIDDIN NURMAMAT O`G`LI</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>AB7443554</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>31612995650032</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>QASHQADARYO VILOYATI QARSHI TUMANI IIB 09.08.2017</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>QASHQADARYO VILOYATI QARSHI TUMANI CHO`LBO`STON QISHLOG`I GULBOG` KO`CHASI 65-UY</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>+998909907917</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>63</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="H93" t="n">
+        <v>258714000</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>77614200</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>QARSHIYEV SALOHIDDIN NURMAMAT O`G`LI</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>AB7443554</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>31612995650032</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>QASHQADARYO VILOYATI QARSHI TUMANI IIB 09.08.2017</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>QASHQADARYO VILOYATI QARSHI TUMANI CHO`LBO`STON QISHLOG`I GULBOG` KO`CHASI 65-UY</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>+998909907917</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Блок 3,1</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>234</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="H94" t="n">
+        <v>224016000</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>224016000</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>XANKELDIYEVA GULNARA ABDIMANNAPOVNA</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>AD7998934</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>40507730470012</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>IIV 60120</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI,  CHIRCHIQ SHAHAR, ISTIQLOL MFY, 10-KICHIK NOHIYA KO'CHASI, 6-UY, 61-XONADON</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>+998 88 687 19 73</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7542,73 +7542,73 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Блок-1,1</t>
+          <t>Блок 3,1</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>47.91</v>
+        <v>46.67</v>
       </c>
       <c r="H92" t="n">
-        <v>258714000</v>
+        <v>224016000</v>
       </c>
       <c r="I92" t="n">
-        <v>5400000</v>
+        <v>4800000</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>77614200</v>
+        <v>224016000</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>QARSHIYEV SALOHIDDIN NURMAMAT O`G`LI</t>
+          <t>XANKELDIYEVA GULNARA ABDIMANNAPOVNA</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>AB7443554</t>
+          <t>AD7998934</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>31612995650032</t>
+          <t>40507730470012</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI QARSHI TUMANI IIB 09.08.2017</t>
+          <t>IIV 60120</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI QARSHI TUMANI CHO`LBO`STON QISHLOG`I GULBOG` KO`CHASI 65-UY</t>
+          <t>TOSHKENT VILOYATI,  CHIRCHIQ SHAHAR, ISTIQLOL MFY, 10-KICHIK NOHIYA KO'CHASI, 6-UY, 61-XONADON</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>+998909907917</t>
+          <t>+998 88 687 19 73</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7620,12 +7620,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7634,59 +7634,59 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>47.91</v>
+        <v>47.94</v>
       </c>
       <c r="H93" t="n">
-        <v>258714000</v>
+        <v>249288000</v>
       </c>
       <c r="I93" t="n">
-        <v>5400000</v>
+        <v>5200000</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>77614200</v>
+        <v>249288000</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>QARSHIYEV SALOHIDDIN NURMAMAT O`G`LI</t>
+          <t>KARAYEV BAXRIDDIN SOLAYDINOVICH</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>AB7443554</t>
+          <t>AB5556235</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>31612995650032</t>
+          <t>32811830560018</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI QARSHI TUMANI IIB 09.08.2017</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB 17.10.2016</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI QARSHI TUMANI CHO`LBO`STON QISHLOG`I GULBOG` KO`CHASI 65-UY</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI ZAFAROBOD Q.F.Y ALYOR KO`CHASI 3-UY</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>+998909907917</t>
+          <t>+9512778930/917770066</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7708,23 +7708,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Блок 3,1</t>
+          <t>Блок 1,2</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>46.67</v>
+        <v>34.66</v>
       </c>
       <c r="H94" t="n">
-        <v>224016000</v>
+        <v>166368000</v>
       </c>
       <c r="I94" t="n">
         <v>4800000</v>
@@ -7735,41 +7735,655 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>224016000</v>
+        <v>166368000</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>XANKELDIYEVA GULNARA ABDIMANNAPOVNA</t>
+          <t>KARAYEV BAXRIDDIN SOLAYDINOVICH</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>AD7998934</t>
+          <t>AB5556235</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>40507730470012</t>
+          <t>32811830560018</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>IIV 60120</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB 17.10.2016</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI,  CHIRCHIQ SHAHAR, ISTIQLOL MFY, 10-KICHIK NOHIYA KO'CHASI, 6-UY, 61-XONADON</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI ZAFAROBOD Q.F.Y ALYOR KO`CHASI 3-UY</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>+998 88 687 19 73</t>
+          <t>+9512778930/917770066</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
           <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Блок 3,1</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>225</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="H95" t="n">
+        <v>311752000</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>93525600</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAXIMOVA NODIRA HUSANOVNA </t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>AB5244540</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>41407913950182</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI PASTDARG'OM TUMANI IIB 27.10.2016</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>QASHQADARYO VILOYATI, MUBORAK TUMANI, 53943 X/N</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>+998 90 502 71 76</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Блок 3,2</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>258</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="H96" t="n">
+        <v>261352000</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>52270400</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>MAMUROVA SHARAPATXON GANIJANOVNA</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>AD9726015</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>41206640470053</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>IIV 27419</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYDAR MAQSUDOV M.F.Y XAYDAR MAKSUDOV KO`CHASI 209-UY</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>+998 99 363 84 51</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Блок 3,1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>247</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="H97" t="n">
+        <v>277296000</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>138648000</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>TOG`AYEVA GULZAMIRA KOSHKAROVNA</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>AD7388334</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>40211710560025</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>IIV 27248</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI SOXIBKOR KO`CHA 24a-UY</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>+998 97 424 00 36</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Блок 3,2</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>255</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="H98" t="n">
+        <v>278350000</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>278350000</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>PARDAEV FARHOD BERDIMURATOVICH</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>AE2581868</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>00000000000000</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>IIV 22401</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>SAMARKAND VILOYATI PAYARIQ TUMANI CHELAK SHAHRI AHMAD YASSAVIY MAHALLASI MIRTEMIR KOCHASI 15A XONADON</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>+000000000000</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Dilfuza</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Блок 3,2</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>256</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="H99" t="n">
+        <v>221400000</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>221400000</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>PARDAEV FARHOD BERDIMURATOVICH</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>AE2581868</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>00000000000000</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>IIV 22401</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>SAMARKAND VILOYATI PAYARIQ TUMANI CHELAK SHAHRI AHMAD YASSAVIY MAHALLASI MIRTEMIR KOCHASI 15A XONADON</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>+000000000000</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Dilfuza</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>41</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="H100" t="n">
+        <v>167752000</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>167752000</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>BERDIYEV JOXONGIR TOSHPULATOVICH</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>AD2898317</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>30301786580023</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>IIV 60013</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR YASHNABOD TUMANIAVIASOZLAR 2 40UY 13 XONADON</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>+998977750278</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Dilfuza</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Блок-1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="H101" t="n">
+        <v>180232000</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>126162400</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>KIRILOVA GUZAL SERGEYEVNA</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>AD8490129</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>40409892600019</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>IIV 27419</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR ISHONCH MFY 10 KICHIK NOXYA 49 UY 44 XONADON</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>+998917770781</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Dilfuza</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Блок 3,1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>228</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="H102" t="n">
+        <v>298688000</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>89606400</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMANOV OMONBOY QURBONOVICH </t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>AC1729006</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>32810683009000378</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XORAZIM VILOYAT QOSHKOPIR TUMANI IIB </t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR PUSHKIN KOCHASI 3/10</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>+998930947208</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8387,6 +8387,162 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Блок-1</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="H103" t="n">
+        <v>209690000</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>62907000</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>ABDUSADIKOV ABDUKARIM YAYLOVICH</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>AB3812736</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>+998917975730</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB </t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 47 UY 67 XONADON</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>+998917975730</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Блок 3</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>189</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="H104" t="n">
+        <v>346255000</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>103876500</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>AMINOV AZIZBEK MAXSUD OGLI</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>AE4264335</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>30404842600050</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XORAZIM VILOYAT URGANCH TUMANI IIB </t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>XORAZIM VILOYATI  URGENCH SHAHAR GOYBU QFY HOJIBOYLAR MFY KUMUSH TOLA KOCHASI 34 UY</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>+998900000000</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Dilfuza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/contract_registry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8543,6 +8543,162 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>79</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="H105" t="n">
+        <v>292251000</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>87675300</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>ABDUSADIKOV ABDUKARIM YAYLOVICH</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>AB3812736</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>31108560470016</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 04.05.2016</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XUMO MFY 8 KICHIK NOXYA 35 UY 31 XONADON</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>900425545</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Блок-1,1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>49</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="H106" t="n">
+        <v>221824000</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>66547200</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>QULMAMATOV NURBEK XXX</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>AD5880467</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>31109921060024</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>IIIV60120  23.01.2024</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>BUXORO VOILOYATI VOBKENT TUMANI TIRMAT QISHLOGI 1-UY</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>+998917737535</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-ОТДЕЛ ПРОДАЖ </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
